--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -464,6 +464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -481,74 +482,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -5724,40 +5657,59 @@
           <t>Observed and Total Population for the U.S. and the States, 2010-2040</t>
         </is>
       </c>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="F1" s="67" t="n"/>
+      <c r="G1" s="67" t="n"/>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
     </row>
     <row r="2" ht="14.25" customHeight="1" s="58">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Updated on Dec 2018 by the Weldon Cooper Center for Public Service, Demographics Research Group, www.demographics.coopercenter.org</t>
         </is>
       </c>
+      <c r="B2" s="67" t="n"/>
+      <c r="C2" s="67" t="n"/>
+      <c r="D2" s="67" t="n"/>
+      <c r="E2" s="67" t="n"/>
+      <c r="F2" s="67" t="n"/>
       <c r="G2" s="20" t="n"/>
       <c r="H2" s="20" t="n"/>
       <c r="I2" s="20" t="n"/>
       <c r="J2" s="20" t="n"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" s="58">
-      <c r="A3" s="68" t="inlineStr">
+      <c r="A3" s="69" t="inlineStr">
         <is>
           <t>FIPS</t>
         </is>
       </c>
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="69" t="inlineStr">
         <is>
           <t>Geography Name</t>
         </is>
       </c>
-      <c r="C3" s="69" t="inlineStr">
+      <c r="C3" s="70" t="inlineStr">
         <is>
           <t>Total Population</t>
         </is>
       </c>
+      <c r="D3" s="67" t="n"/>
+      <c r="E3" s="67" t="n"/>
+      <c r="F3" s="67" t="n"/>
       <c r="G3" s="20" t="n"/>
       <c r="H3" s="20" t="n"/>
       <c r="I3" s="20" t="n"/>
       <c r="J3" s="20" t="n"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" s="58">
+      <c r="A4" s="67" t="n"/>
+      <c r="B4" s="67" t="n"/>
       <c r="C4" s="10" t="n">
         <v>2020</v>
       </c>
@@ -7231,11 +7183,13 @@
       <c r="J56" s="20" t="n"/>
     </row>
     <row r="57" ht="14.25" customHeight="1" s="58">
-      <c r="A57" s="70" t="inlineStr">
+      <c r="A57" s="71" t="inlineStr">
         <is>
           <t>Subgroups may not sum to total due to rounding</t>
         </is>
       </c>
+      <c r="B57" s="67" t="n"/>
+      <c r="C57" s="67" t="n"/>
       <c r="D57" s="20" t="n"/>
       <c r="E57" s="20" t="n"/>
       <c r="F57" s="20" t="n"/>
@@ -13949,15 +13903,15 @@
           <t>Capacity by Wind TRG Class (MW)</t>
         </is>
       </c>
-      <c r="C3" s="71" t="n"/>
-      <c r="D3" s="71" t="n"/>
-      <c r="E3" s="71" t="n"/>
-      <c r="F3" s="71" t="n"/>
-      <c r="G3" s="71" t="n"/>
-      <c r="H3" s="71" t="n"/>
-      <c r="I3" s="71" t="n"/>
-      <c r="J3" s="71" t="n"/>
-      <c r="K3" s="72" t="n"/>
+      <c r="C3" s="72" t="n"/>
+      <c r="D3" s="72" t="n"/>
+      <c r="E3" s="72" t="n"/>
+      <c r="F3" s="72" t="n"/>
+      <c r="G3" s="72" t="n"/>
+      <c r="H3" s="72" t="n"/>
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="72" t="n"/>
+      <c r="K3" s="73" t="n"/>
       <c r="M3" s="31" t="inlineStr">
         <is>
           <t>State</t>
